--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_interface_test_ni_interface_subinterface_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_interface_test_ni_interface_subinterface_logs.xlsx
@@ -504,48 +504,80 @@
           <t xml:space="preserve">
                     &lt;filter&gt;
                         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
-                        &lt;interface&gt;
-                        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-                        &lt;/interface&gt;
+                            &lt;interface&gt;
+                                &lt;name&gt;GigabitEthernet0/3/2&lt;/name&gt;
+                                &lt;subinterfaces&gt;
+                                    &lt;subinterface&gt;
+                                        &lt;index&gt;100&lt;/index&gt;
+                                    &lt;/subinterface&gt;
+                                &lt;/subinterfaces&gt;
+                            &lt;/interface&gt;
                         &lt;/interfaces&gt;
                     &lt;/filter&gt;
 -------------------
-</t>
+                    &lt;filter&gt;
+                        &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+                        &lt;network-instance&gt;
+                        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+                        &lt;/network-instance&gt;
+                        &lt;/network-instances&gt;
+                    &lt;/filter&gt;
+                    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:0ea538a5-398e-4a10-9fc9-2397798c6f89"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:3eef521f-7de7-4a12-a7d8-fe82f1370032"&gt;
   &lt;data&gt;
     &lt;interfaces&gt;
       &lt;interface&gt;
-        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-        &lt;config&gt;
-          &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-          &lt;type&gt;ianaift:ethernetCsmacd&lt;/type&gt;
-          &lt;loopback-mode&gt;false&lt;/loopback-mode&gt;
-          &lt;enabled&gt;true&lt;/enabled&gt;
-          &lt;tpid&gt;oc-vlan-types:TPID_0X8100&lt;/tpid&gt;
-        &lt;/config&gt;
-        &lt;subinterfaces&gt;
-          &lt;subinterface&gt;
-            &lt;index&gt;0&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;0&lt;/index&gt;
-              &lt;enabled&gt;true&lt;/enabled&gt;
-            &lt;/config&gt;
-            &lt;ipv4&gt;
-              &lt;config&gt;
-                &lt;enabled&gt;true&lt;/enabled&gt;
-              &lt;/config&gt;
-            &lt;/ipv4&gt;
-          &lt;/subinterface&gt;
-        &lt;/subinterfaces&gt;
+        &lt;name&gt;GigabitEthernet0/3/2&lt;/name&gt;
       &lt;/interface&gt;
     &lt;/interfaces&gt;
   &lt;/data&gt;
 &lt;/rpc-reply&gt;
 -------------------
+&lt;rpc-reply message-id="urn:uuid:2fda1e91-e66f-484d-92c2-dfb610339a5b"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
 </t>
         </is>
       </c>
@@ -559,7 +591,7 @@
     &lt;config&gt;
       &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
         &lt;interface&gt;
-          &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
+          &lt;name&gt;GigabitEthernet0/3/2&lt;/name&gt;
           &lt;subinterfaces&gt;
             &lt;subinterface&gt;
               &lt;index&gt;100&lt;/index&gt;
@@ -573,15 +605,40 @@
     &lt;/config&gt;
   &lt;/edit-config&gt; 
 -------------------
-</t>
+  &lt;edit-config&gt;
+    &lt;target&gt;
+      &lt;candidate/&gt;
+    &lt;/target&gt;
+    &lt;config&gt;
+      &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+        &lt;network-instance&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+            &lt;type xmlns:oc-ni-types="http://openconfig.net/yang/network-instance-types"&gt;oc-ni-types:L3VRF&lt;/type&gt;
+          &lt;/config&gt;
+          &lt;interfaces&gt;
+            &lt;interface&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+                &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+                &lt;subinterface&gt;100&lt;/subinterface&gt;
+              &lt;/config&gt;
+            &lt;/interface&gt;
+          &lt;/interfaces&gt;
+        &lt;/network-instance&gt;
+      &lt;/network-instances&gt;
+    &lt;/config&gt;
+  &lt;/edit-config&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:9462461c-d2f4-4a23-a66c-0bbae27064d5"&gt;
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:800cdfdc-b94d-49be-a13f-2d3fe4044913"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:ea7e2ece-0b59-481f-97c3-ce3a60971156" nc-ext:flow-id="85"&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:20f57bc4-1ad6-44eb-9b9e-be8804dbce4c" nc-ext:flow-id="252"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
 -------------------
@@ -590,31 +647,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:21f4db43-00d6-4419-9159-329aa408b6a5"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:dd8d79fd-8b63-4b44-bd2e-7fcf9c3a3dfd"&gt;
   &lt;data&gt;
     &lt;interfaces&gt;
       &lt;interface&gt;
-        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-        &lt;config&gt;
-          &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-          &lt;type&gt;ianaift:ethernetCsmacd&lt;/type&gt;
-          &lt;loopback-mode&gt;false&lt;/loopback-mode&gt;
-          &lt;enabled&gt;true&lt;/enabled&gt;
-          &lt;tpid&gt;oc-vlan-types:TPID_0X8100&lt;/tpid&gt;
-        &lt;/config&gt;
+        &lt;name&gt;GigabitEthernet0/3/2&lt;/name&gt;
         &lt;subinterfaces&gt;
-          &lt;subinterface&gt;
-            &lt;index&gt;0&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;0&lt;/index&gt;
-              &lt;enabled&gt;true&lt;/enabled&gt;
-            &lt;/config&gt;
-            &lt;ipv4&gt;
-              &lt;config&gt;
-                &lt;enabled&gt;true&lt;/enabled&gt;
-              &lt;/config&gt;
-            &lt;/ipv4&gt;
-          &lt;/subinterface&gt;
           &lt;subinterface&gt;
             &lt;index&gt;100&lt;/index&gt;
             &lt;config&gt;
